--- a/public/exports/KEPP.xlsx
+++ b/public/exports/KEPP.xlsx
@@ -1,13 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vault\Project\giret extreme\baru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD9AAD-F821-441C-8333-7D46D5DD834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="KEPP" sheetId="1" r:id="rId4"/>
+    <sheet name="KEPP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgMTQcTLUeM6ApXrcoEckfiExaywg=="/>
     </ext>
@@ -16,39 +34,63 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="N9">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAApTcnpCw
+DR. AIMAN SABQI BIN IBRAHIM (PKPDTEMERLOH&amp;BERA)    (2023-01-29 03:28:19)
+* Rawatan Semula (Dari KP Primer) adalah kes yang dirujuk dari KP Primer untuk rawatan semula endodontik di KEPP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAApTcnpC0
+DR. AIMAN SABQI BIN IBRAHIM (PKPDTEMERLOH&amp;BERA)    (2023-01-29 03:30:51)
+* Rawatan Semula (Dari KP Primer) adalah kes yang dirujuk dari KP Primer untuk rawatan semula endodontik di KEPP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAApTcns0s
 DR. AIMAN SABQI BIN IBRAHIM (PKPDTEMERLOH&amp;BERA)    (2023-01-29 03:32:14)
 **Rawatan Semula (Di KEPP) adalah kes yang diselesaikan oleh KEPP tetapi perlu untuk rawatan semula endodontik di KEPP (contoh kes endodontik bermasalah)
 Kolum 18: Rujuk kod dalam garis panduan Perkhidmatan Pergigian Endodontik di KP Primer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M9">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAApTcnpC0
-DR. AIMAN SABQI BIN IBRAHIM (PKPDTEMERLOH&amp;BERA)    (2023-01-29 03:30:51)
-* Rawatan Semula (Dari KP Primer) adalah kes yang dirujuk dari KP Primer untuk rawatan semula endodontik di KEPP</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H9">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAApTcnpCw
-DR. AIMAN SABQI BIN IBRAHIM (PKPDTEMERLOH&amp;BERA)    (2023-01-29 03:28:19)
-* Rawatan Semula (Dari KP Primer) adalah kes yang dirujuk dari KP Primer untuk rawatan semula endodontik di KEPP</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh1WKVofXa8N9T7UVWtGm6K2BB/Fw=="/>
     </ext>
   </extLst>
@@ -66,18 +108,18 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>Reten Bulanan</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> dikumpul di negeri (Dihantar 6 bulan sekali oleh Pejabat TPKN(G) ke Program Kesihatan Pergigian)</t>
     </r>
@@ -149,20 +191,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">* Rawatan Semula </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
         <i/>
+        <sz val="10"/>
         <color theme="1"/>
-        <sz val="10.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(Dari KP Primer)</t>
     </r>
@@ -189,17 +231,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> Disediakan oleh,</t>
     </r>
@@ -217,78 +259,88 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="&quot;cg omega&quot;"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -298,7 +350,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -308,27 +360,39 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -338,6 +402,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -349,6 +414,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -357,6 +424,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -365,9 +435,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -382,133 +454,120 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -698,39 +757,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="2" max="2" width="18.86"/>
-    <col customWidth="1" min="3" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="10.14"/>
-    <col customWidth="1" min="9" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="11" width="9.71"/>
-    <col customWidth="1" min="12" max="12" width="9.43"/>
-    <col customWidth="1" min="13" max="13" width="10.43"/>
-    <col customWidth="1" min="14" max="15" width="9.71"/>
-    <col customWidth="1" min="16" max="16" width="8.71"/>
-    <col customWidth="1" min="17" max="17" width="8.57"/>
-    <col customWidth="1" min="18" max="18" width="11.86"/>
-    <col customWidth="1" min="19" max="19" width="11.57"/>
-    <col customWidth="1" min="20" max="20" width="11.71"/>
-    <col customWidth="1" min="21" max="26" width="8.71"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -753,13 +817,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:20" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -768,603 +832,689 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="K4" s="12" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="K4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="T5" s="13" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="T5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="T6" s="13" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="T6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="16" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="16" t="s">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" ht="58.5" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="15" t="s">
+      <c r="S8" s="25"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" spans="1:20" ht="58.5" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="15" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26" t="s">
+    <row r="10" spans="1:20" ht="18.75" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="D11" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="E11" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="G11" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="H11" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="I11" s="27">
-        <v>9.0</v>
-      </c>
-      <c r="J11" s="27">
-        <v>10.0</v>
-      </c>
-      <c r="K11" s="27">
-        <v>11.0</v>
-      </c>
-      <c r="L11" s="27">
-        <v>12.0</v>
-      </c>
-      <c r="M11" s="27">
-        <v>13.0</v>
-      </c>
-      <c r="N11" s="27">
-        <v>14.0</v>
-      </c>
-      <c r="O11" s="27">
-        <v>15.0</v>
-      </c>
-      <c r="P11" s="27">
-        <v>16.0</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>17.0</v>
-      </c>
-      <c r="R11" s="27">
-        <v>18.0</v>
-      </c>
-      <c r="S11" s="27">
-        <v>19.0</v>
-      </c>
-      <c r="T11" s="27">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-    </row>
-    <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-    </row>
-    <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-    </row>
-    <row r="22" ht="24.75" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-    </row>
-    <row r="24" ht="24.75" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" ht="92.25" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12">
+        <v>7</v>
+      </c>
+      <c r="H11" s="12">
+        <v>8</v>
+      </c>
+      <c r="I11" s="12">
+        <v>9</v>
+      </c>
+      <c r="J11" s="12">
+        <v>10</v>
+      </c>
+      <c r="K11" s="12">
+        <v>11</v>
+      </c>
+      <c r="L11" s="12">
+        <v>12</v>
+      </c>
+      <c r="M11" s="12">
+        <v>13</v>
+      </c>
+      <c r="N11" s="12">
+        <v>14</v>
+      </c>
+      <c r="O11" s="12">
+        <v>15</v>
+      </c>
+      <c r="P11" s="12">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>17</v>
+      </c>
+      <c r="R11" s="12">
+        <v>18</v>
+      </c>
+      <c r="S11" s="12">
+        <v>19</v>
+      </c>
+      <c r="T11" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
+        <f>SUM(C12:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13">
+        <f>SUM(J12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14">
+        <f t="shared" ref="I13:I24" si="0">SUM(C13:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13">
+        <f t="shared" ref="Q13:Q24" si="1">SUM(J13:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+    </row>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+    </row>
+    <row r="17" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+    </row>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+    </row>
+    <row r="21" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+    </row>
+    <row r="22" spans="1:20" ht="24.75" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="1:20" ht="24.75" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+    </row>
+    <row r="24" spans="1:20" ht="24.75" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:20" ht="92.25" customHeight="1">
+      <c r="A26" s="32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" ht="24.75" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:20" ht="24.75" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:20" ht="24.75" customHeight="1">
+      <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="32"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" ht="14.25" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:20" ht="14.25" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:20" ht="14.25" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:20" ht="14.25" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" s="18"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" s="19"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="35"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="36"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="35"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="37"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="35"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="37"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="38"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="36"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" s="20"/>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" s="21"/>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" s="20"/>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A39" s="20"/>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A42" s="21"/>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2319,6 +2469,16 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
     <mergeCell ref="J8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="C9:C10"/>
@@ -2335,21 +2495,9 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/exports/KEPP.xlsx
+++ b/public/exports/KEPP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vault\Project\giret extreme\baru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calypso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD9AAD-F821-441C-8333-7D46D5DD834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA76255-E676-4809-822F-C5DDCA0D7A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KEPP" sheetId="1" r:id="rId1"/>
@@ -522,19 +522,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -545,8 +536,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,7 +770,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -836,7 +836,7 @@
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="25"/>
       <c r="D4" s="26"/>
       <c r="K4" s="9" t="s">
@@ -850,7 +850,7 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="25"/>
       <c r="D5" s="26"/>
       <c r="T5" s="10" t="s">
@@ -861,7 +861,7 @@
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
       <c r="T6" s="10" t="s">
@@ -873,17 +873,17 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="25"/>
@@ -907,39 +907,39 @@
       <c r="T8" s="26"/>
     </row>
     <row r="9" spans="1:20" ht="58.5" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="33" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="24" t="s">
@@ -947,16 +947,16 @@
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="26"/>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14">
-        <f>SUM(C12:H12)</f>
+        <f>SUM(E12:H12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="13"/>
@@ -1088,7 +1088,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14">
-        <f t="shared" ref="I13:I24" si="0">SUM(C13:H13)</f>
+        <f t="shared" ref="I13:I24" si="0">SUM(E13:H13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="13"/>
@@ -1426,17 +1426,17 @@
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:20" ht="92.25" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:20" ht="24.75" customHeight="1">
       <c r="A27" s="16"/>
@@ -2469,17 +2469,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -2495,6 +2484,17 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
